--- a/src/asset/pdf/cotisation.xlsx
+++ b/src/asset/pdf/cotisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nijea\OneDrive\Documents\CODE\ONPR PROJECT\onpr-ui\src\asset\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC54D7B-5975-4B9F-A67E-05101554D897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157B584F-914F-4FA9-8A1E-FE955E7751DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CD8369C-1CBA-4EAE-A435-18021A62F0EC}"/>
   </bookViews>
@@ -33,18 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>matricule</t>
   </si>
   <si>
     <t>nom</t>
-  </si>
-  <si>
-    <t>prenom</t>
-  </si>
-  <si>
-    <t>telephone</t>
   </si>
   <si>
     <t>mois</t>
@@ -411,19 +405,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6506C4-E69C-4ED6-930A-840166268AC3}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="A2:J4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,12 +438,6 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
